--- a/Data/Storages/Local/Jobs/Inspection Chamber_14July23/exports/TakeOff_sheet.xlsx
+++ b/Data/Storages/Local/Jobs/Inspection Chamber_14July23/exports/TakeOff_sheet.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,9 @@
     </font>
     <font>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF00FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,10 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,22 +844,22 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>rft_E1</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>150mm solid blkwk</t>
+          <t>12mm dia rft in conc slab</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>F15.3</t>
+          <t>E10.1</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -865,94 +869,110 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>L=1x4x2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>m2_F1</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="1" t="inlineStr"/>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>rft_E1</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>m2_F1</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>rft_E1</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>TONNAGE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>m2_M2</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>12mm plastering; cs(1:4)</t>
+          <t>150mm solid blkwk</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>M20.1</t>
+          <t>F15.3</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -972,12 +992,12 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>m2_M2</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
@@ -1003,12 +1023,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>m2_M2</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -1034,7 +1054,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>m2_M3</t>
+          <t>m2_M2</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1044,7 +1064,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>20mm plastering; cs(1:4)</t>
+          <t>12mm plastering; cs(1:4)</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -1069,7 +1089,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>m2_M3</t>
+          <t>m2_M2</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1100,7 +1120,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>m2_M3</t>
+          <t>m2_M2</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1131,7 +1151,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>m2_M4</t>
+          <t>m2_M3</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1141,12 +1161,12 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Painting to walls; 3cts emulsion</t>
+          <t>20mm plastering; cs(1:4)</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>M30.1</t>
+          <t>M20.1</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1166,7 +1186,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>m2_M4</t>
+          <t>m2_M3</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1197,7 +1217,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>m2_M4</t>
+          <t>m2_M3</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1225,6 +1245,103 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>m2_M4</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Painting to walls; 3cts emulsion</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>M30.1</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr"/>
+      <c r="H26" s="1" t="inlineStr"/>
+      <c r="I26" s="1" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>m2_M4</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>m2_M4</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Storages/Local/Jobs/Inspection Chamber_14July23/exports/TakeOff_sheet.xlsx
+++ b/Data/Storages/Local/Jobs/Inspection Chamber_14July23/exports/TakeOff_sheet.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,9 @@
     </font>
     <font>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
       <color rgb="FF00FF00"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,22 +608,22 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>m3_E2</t>
+          <t>m3_D4</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>C25 Plain conc in 150mm bed &amp; ddt backfillg &amp; add dispsl</t>
+          <t>dispsl</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>D20.1</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -639,12 +643,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>m3_E2</t>
+          <t>m3_D4</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
@@ -660,45 +664,45 @@
       <c r="I7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>m3_E2</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>m3_D4</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>-10.00</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>m3_E2</t>
+          <t>m3_D4</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -707,7 +711,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-10.00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -724,7 +728,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m3_E2</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -734,7 +738,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd conc in cover slab</t>
+          <t>C25 Plain conc in 150mm bed &amp; ddt backfillg &amp; add dispsl</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -759,7 +763,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m3_E2</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -782,7 +786,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m3_E2</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -813,7 +817,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m3_E2</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -844,7 +848,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>rft_E1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -854,12 +858,12 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>12mm dia rft in conc slab</t>
+          <t>C25 Rfcd conc in cover slab</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>E10.1</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -869,166 +873,154 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>L=1x4x2</t>
-        </is>
-      </c>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>rft_E1</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="inlineStr"/>
+      <c r="E16" s="1" t="inlineStr"/>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>rft_E1</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>0.888</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>TONNAGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>m2_F1</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blkwk</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>F15.3</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr"/>
-      <c r="H17" s="1" t="inlineStr"/>
-      <c r="I17" s="1" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>rft_E1</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr"/>
-      <c r="D18" s="1" t="inlineStr"/>
-      <c r="E18" s="1" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>12mm dia rft in conc slab</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>E10.1</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr"/>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>L=1x4x2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>rft_E1</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -1037,12 +1029,12 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1052,151 +1044,163 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>m2_M2</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>12mm plastering; cs(1:4)</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>M20.1</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr"/>
-      <c r="I20" s="1" t="inlineStr"/>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>rft_E1</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>TONNAGE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>m2_M2</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="1" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blkwk</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>F15.3</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr"/>
+      <c r="H21" s="1" t="inlineStr"/>
+      <c r="I21" s="1" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>m2_F1</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>40.00</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H22" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>m2_M2</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="I22" s="1" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>m2_F1</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>40.00</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>m2_M3</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>20mm plastering; cs(1:4)</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>M20.1</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="1" t="inlineStr"/>
-      <c r="I23" s="1" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>m2_M3</t>
+          <t>nr_G1</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="1" t="inlineStr"/>
-      <c r="E24" s="1" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Metal cover - size 500x500mm</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>N5.1</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>1.00</t>
@@ -1204,25 +1208,29 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr"/>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>10 each</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>m2_M3</t>
+          <t>nr_G1</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -1231,12 +1239,12 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>nr</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1248,7 +1256,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>m2_M4</t>
+          <t>m2_M2</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1258,12 +1266,12 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Painting to walls; 3cts emulsion</t>
+          <t>12mm plastering; cs(1:4)</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>M30.1</t>
+          <t>M20.1</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -1283,7 +1291,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>m2_M4</t>
+          <t>m2_M2</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1314,7 +1322,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>m2_M4</t>
+          <t>m2_M2</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1342,6 +1350,371 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>m2_M3</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>20mm plastering; cs(1:4)</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>M20.1</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr"/>
+      <c r="H29" s="1" t="inlineStr"/>
+      <c r="I29" s="1" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>m2_M3</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr"/>
+      <c r="D30" s="1" t="inlineStr"/>
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>m2_M3</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>m2_M4</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Painting to walls; 3cts emulsion</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>M30.1</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr"/>
+      <c r="H32" s="1" t="inlineStr"/>
+      <c r="I32" s="1" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>m2_M4</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr"/>
+      <c r="D33" s="1" t="inlineStr"/>
+      <c r="E33" s="1" t="inlineStr"/>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>m2_M4</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>m2_M5</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>150mm bench screed to bottom</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>M20.1</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr"/>
+      <c r="H35" s="1" t="inlineStr"/>
+      <c r="I35" s="1" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>m2_M5</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr"/>
+      <c r="D36" s="1" t="inlineStr"/>
+      <c r="E36" s="1" t="inlineStr"/>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>m2_M5</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>m_R1</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>100mm PVC Pipe</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>R10.1</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>m_R1</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
